--- a/ID说明.xlsx
+++ b/ID说明.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +71,22 @@
   </si>
   <si>
     <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statusCountLabel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hunClassRichText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混合课程的名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -420,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -496,6 +512,22 @@
         <v>15</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ID说明.xlsx
+++ b/ID说明.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,7 +78,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>统计内容</t>
+    <t>混合课程的名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计结果的richTextBox</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -86,7 +90,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>混合课程的名字</t>
+    <t>manClassRichTextBox</t>
+  </si>
+  <si>
+    <t>没有男字的男生班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计内容【废弃】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statusCountTextBox</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -94,7 +109,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,13 +124,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -127,13 +155,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -436,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -513,19 +546,35 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
-        <v>17</v>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
